--- a/drafts/tables/TableXX_wholePlant.xlsx
+++ b/drafts/tables/TableXX_wholePlant.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eaperkowski/git/p_meta/drafts/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCD525D-AB4E-9848-A421-1FB66EB8E661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272756C4-D206-CC4D-9D3F-DB3959CA6235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51740" yWindow="500" windowWidth="32460" windowHeight="17440" xr2:uid="{8C0274CA-637A-D549-8DE8-7F2B3B672490}"/>
+    <workbookView xWindow="320" yWindow="500" windowWidth="32460" windowHeight="17440" xr2:uid="{8C0274CA-637A-D549-8DE8-7F2B3B672490}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
   <si>
     <t>variable</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>root_shoot_ratio</t>
+  </si>
+  <si>
+    <t>estimate_se</t>
   </si>
 </sst>
 </file>
@@ -154,12 +157,6 @@
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -185,6 +182,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A491FF-591D-5142-A76B-95AF05C56DB3}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="268" zoomScaleNormal="268" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="268" zoomScaleNormal="268" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -533,14 +536,15 @@
     <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5" customWidth="1"/>
-    <col min="8" max="9" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" customWidth="1"/>
+    <col min="9" max="10" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -556,655 +560,742 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="11">
         <v>42</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="4" t="str">
+        <f>CONCATENATE(D2, "±", E2)</f>
+        <v>0.034±0.053</v>
+      </c>
+      <c r="G2" s="4">
         <v>0.64300000000000002</v>
       </c>
-      <c r="G2" s="6">
+      <c r="H2" s="4">
         <v>0.52</v>
       </c>
-      <c r="H2" s="6">
+      <c r="I2" s="4">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="I2" s="6">
+      <c r="J2" s="4">
         <v>0.13900000000000001</v>
       </c>
-      <c r="J2" s="3" t="str">
-        <f>CONCATENATE("[",H2,", ",I2,"]")</f>
+      <c r="K2" s="1" t="str">
+        <f>CONCATENATE("[",I2,", ",J2,"]")</f>
         <v>[-0.07, 0.139]</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="6">
+      <c r="C3" s="11"/>
+      <c r="D3" s="4">
         <v>0.155</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4" t="str">
+        <f t="shared" ref="F3:F22" si="0">CONCATENATE(D3, "±", E3)</f>
+        <v>0.155±0.077</v>
+      </c>
+      <c r="G3" s="4">
         <v>2.0070000000000001</v>
       </c>
-      <c r="G3" s="7">
+      <c r="H3" s="5">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="H3" s="6">
+      <c r="I3" s="4">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="I3" s="6">
+      <c r="J3" s="4">
         <v>0.307</v>
       </c>
-      <c r="J3" s="3" t="str">
-        <f t="shared" ref="J3:J22" si="0">CONCATENATE("[",H3,", ",I3,"]")</f>
+      <c r="K3" s="1" t="str">
+        <f t="shared" ref="K3:K22" si="1">CONCATENATE("[",I3,", ",J3,"]")</f>
         <v>[0.004, 0.307]</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="6">
+      <c r="C4" s="11"/>
+      <c r="D4" s="4">
         <v>0.379</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>7.8E-2</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0.379±0.078</v>
+      </c>
+      <c r="G4" s="4">
         <v>4.8710000000000004</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="6">
+      <c r="I4" s="4">
         <v>0.22600000000000001</v>
       </c>
-      <c r="I4" s="6">
+      <c r="J4" s="4">
         <v>0.53100000000000003</v>
       </c>
-      <c r="J4" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="K4" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>[0.226, 0.531]</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="11">
         <v>125</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>0.32600000000000001</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0.326±0.037</v>
+      </c>
+      <c r="G5" s="4">
         <v>8.7530000000000001</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="6">
+      <c r="I5" s="4">
         <v>0.253</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J5" s="4">
         <v>0.39900000000000002</v>
       </c>
-      <c r="J5" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="K5" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>[0.253, 0.399]</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
       <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="6">
+      <c r="C6" s="11"/>
+      <c r="D6" s="4">
         <v>0.191</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0.191±0.033</v>
+      </c>
+      <c r="G6" s="4">
         <v>5.7409999999999997</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="6">
+      <c r="I6" s="4">
         <v>0.126</v>
       </c>
-      <c r="I6" s="6">
+      <c r="J6" s="4">
         <v>0.25700000000000001</v>
       </c>
-      <c r="J6" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="K6" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>[0.126, 0.257]</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="6">
+      <c r="C7" s="11"/>
+      <c r="D7" s="4">
         <v>0.627</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>0.48</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0.627±0.48</v>
+      </c>
+      <c r="G7" s="4">
         <v>13.106</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="4">
         <v>0.53300000000000003</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J7" s="4">
         <v>0.72099999999999997</v>
       </c>
-      <c r="J7" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="K7" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>[0.533, 0.721]</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="11">
         <v>18</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>0.51200000000000001</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0.512±0.092</v>
+      </c>
+      <c r="G8" s="4">
         <v>5.5410000000000004</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="6">
+      <c r="I8" s="4">
         <v>0.33100000000000002</v>
       </c>
-      <c r="I8" s="6">
+      <c r="J8" s="4">
         <v>0.69299999999999995</v>
       </c>
-      <c r="J8" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="K8" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>[0.331, 0.693]</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
       <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="6">
+      <c r="C9" s="11"/>
+      <c r="D9" s="4">
         <v>0.32100000000000001</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>0.183</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0.321±0.183</v>
+      </c>
+      <c r="G9" s="4">
         <v>1.752</v>
       </c>
-      <c r="G9" s="8">
+      <c r="H9" s="6">
         <v>0.08</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="4">
         <v>-3.7999999999999999E-2</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J9" s="4">
         <v>0.68</v>
       </c>
-      <c r="J9" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="K9" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>[-0.038, 0.68]</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="6">
+      <c r="C10" s="11"/>
+      <c r="D10" s="4">
         <v>0.90300000000000002</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>0.19700000000000001</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0.903±0.197</v>
+      </c>
+      <c r="G10" s="4">
         <v>4.5830000000000002</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I10" s="4">
         <v>0.51700000000000002</v>
       </c>
-      <c r="I10" s="6">
+      <c r="J10" s="4">
         <v>1.2889999999999999</v>
       </c>
-      <c r="J10" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="K10" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>[0.517, 1.289]</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="11">
         <v>12</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="4">
         <v>0.192</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0.192±0.056</v>
+      </c>
+      <c r="G11" s="4">
         <v>3.423</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="6">
+      <c r="I11" s="4">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="I11" s="6">
+      <c r="J11" s="4">
         <v>0.30099999999999999</v>
       </c>
-      <c r="J11" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="K11" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>[0.082, 0.301]</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
       <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="6">
+      <c r="C12" s="11"/>
+      <c r="D12" s="4">
         <v>0.77600000000000002</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>0.16700000000000001</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0.776±0.167</v>
+      </c>
+      <c r="G12" s="4">
         <v>4.6470000000000002</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="6">
+      <c r="I12" s="4">
         <v>0.44900000000000001</v>
       </c>
-      <c r="I12" s="6">
+      <c r="J12" s="4">
         <v>1.103</v>
       </c>
-      <c r="J12" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="K12" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>[0.449, 1.103]</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
       <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="6">
+      <c r="C13" s="11"/>
+      <c r="D13" s="4">
         <v>1.004</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="4">
         <v>0.17499999999999999</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1.004±0.175</v>
+      </c>
+      <c r="G13" s="4">
         <v>5.73</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="6">
+      <c r="I13" s="4">
         <v>0.66100000000000003</v>
       </c>
-      <c r="I13" s="6">
+      <c r="J13" s="4">
         <v>1.3480000000000001</v>
       </c>
-      <c r="J13" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="K13" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>[0.661, 1.348]</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="11">
         <v>63</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="7">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>-0.015±0.07</v>
+      </c>
+      <c r="G14" s="4">
         <v>-0.218</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="1">
         <v>0.82799999999999996</v>
       </c>
-      <c r="H14" s="6">
+      <c r="I14" s="4">
         <v>-0.151</v>
       </c>
-      <c r="I14" s="6">
+      <c r="J14" s="4">
         <v>0.121</v>
       </c>
-      <c r="J14" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="K14" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>[-0.151, 0.121]</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="9">
+      <c r="C15" s="11"/>
+      <c r="D15" s="7">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="4">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0.032±0.043</v>
+      </c>
+      <c r="G15" s="4">
         <v>0.745</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="1">
         <v>0.45600000000000002</v>
       </c>
-      <c r="H15" s="6">
+      <c r="I15" s="4">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="I15" s="6">
+      <c r="J15" s="4">
         <v>0.11700000000000001</v>
       </c>
-      <c r="J15" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="K15" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>[0.053, 0.117]</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="5" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="9">
+      <c r="C16" s="11"/>
+      <c r="D16" s="7">
         <v>0.10100000000000001</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="4">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0.101±0.074</v>
+      </c>
+      <c r="G16" s="4">
         <v>1.3580000000000001</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="1">
         <v>0.17399999999999999</v>
       </c>
-      <c r="H16" s="6">
+      <c r="I16" s="4">
         <v>-4.4999999999999998E-2</v>
       </c>
-      <c r="I16" s="6">
+      <c r="J16" s="4">
         <v>0.245</v>
       </c>
-      <c r="J16" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="K16" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>[-0.045, 0.245]</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="11">
         <v>37</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="7">
         <v>-0.158</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="4">
         <v>4.7E-2</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>-0.158±0.047</v>
+      </c>
+      <c r="G17" s="4">
         <v>-3.4</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="H17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="6">
+      <c r="I17" s="4">
         <v>-0.25</v>
       </c>
-      <c r="I17" s="6">
+      <c r="J17" s="4">
         <v>-6.7000000000000004E-2</v>
       </c>
-      <c r="J17" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="K17" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>[-0.25, -0.067]</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="9">
+      <c r="C18" s="11"/>
+      <c r="D18" s="7">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="4">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>-0.07±0.038</v>
+      </c>
+      <c r="G18" s="4">
         <v>-1.8280000000000001</v>
       </c>
-      <c r="G18" s="11">
+      <c r="H18" s="9">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="H18" s="6">
+      <c r="I18" s="4">
         <v>-0.14499999999999999</v>
       </c>
-      <c r="I18" s="6">
+      <c r="J18" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="J18" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="K18" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>[-0.145, 0.005]</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="5" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="9">
+      <c r="C19" s="11"/>
+      <c r="D19" s="7">
         <v>-0.14799999999999999</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="4">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>-0.148±0.046</v>
+      </c>
+      <c r="G19" s="4">
         <v>-3.2519999999999998</v>
       </c>
-      <c r="G19" s="10">
+      <c r="H19" s="8">
         <v>1E-3</v>
       </c>
-      <c r="H19" s="6">
+      <c r="I19" s="4">
         <v>-0.23699999999999999</v>
       </c>
-      <c r="I19" s="6">
+      <c r="J19" s="4">
         <v>-5.8999999999999997E-2</v>
       </c>
-      <c r="J19" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="K19" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>[-0.237, -0.059]</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="11">
         <v>40</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="7">
         <v>-0.34100000000000003</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="4">
         <v>0.09</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>-0.341±0.09</v>
+      </c>
+      <c r="G20" s="4">
         <v>-3.802</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="H20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="6">
+      <c r="I20" s="4">
         <v>-0.51600000000000001</v>
       </c>
-      <c r="I20" s="6">
+      <c r="J20" s="4">
         <v>-0.16500000000000001</v>
       </c>
-      <c r="J20" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="K20" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>[-0.516, -0.165]</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="9">
+      <c r="C21" s="11"/>
+      <c r="D21" s="7">
         <v>-0.22700000000000001</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="4">
         <v>0.10199999999999999</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>-0.227±0.102</v>
+      </c>
+      <c r="G21" s="4">
         <v>-2.226</v>
       </c>
-      <c r="G21" s="10">
+      <c r="H21" s="8">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="H21" s="6">
+      <c r="I21" s="4">
         <v>-0.42599999999999999</v>
       </c>
-      <c r="I21" s="6">
+      <c r="J21" s="4">
         <v>-2.7E-2</v>
       </c>
-      <c r="J21" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="K21" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>[-0.426, -0.027]</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="9">
+      <c r="C22" s="11"/>
+      <c r="D22" s="7">
         <v>-0.40100000000000002</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="4">
         <v>0.114</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>-0.401±0.114</v>
+      </c>
+      <c r="G22" s="4">
         <v>-3.5169999999999999</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="H22" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H22" s="6">
+      <c r="I22" s="4">
         <v>-0.625</v>
       </c>
-      <c r="I22" s="6">
+      <c r="J22" s="4">
         <v>-0.17799999999999999</v>
       </c>
-      <c r="J22" s="3" t="str">
-        <f t="shared" si="0"/>
+      <c r="K22" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>[-0.625, -0.178]</v>
       </c>
     </row>
